--- a/output/SAFRA_21144577000147.xlsx
+++ b/output/SAFRA_21144577000147.xlsx
@@ -1186,10 +1186,10 @@
         <v>44165</v>
       </c>
       <c r="B73">
-        <v>0.8726266699999998</v>
+        <v>0.8772712999999999</v>
       </c>
       <c r="C73">
-        <v>-0.001081564785416544</v>
+        <v>0.001396028109140968</v>
       </c>
     </row>
   </sheetData>

--- a/output/SAFRA_21144577000147.xlsx
+++ b/output/SAFRA_21144577000147.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>SAFRA KEPLER FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,810 +383,594 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42004</v>
       </c>
       <c r="B2">
-        <v>0.0007133399999998957</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42035</v>
       </c>
       <c r="B3">
-        <v>0.009654590000000018</v>
-      </c>
-      <c r="C3">
         <v>0.008934876395272351</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42063</v>
       </c>
       <c r="B4">
-        <v>0.01651424000000001</v>
-      </c>
-      <c r="C4">
         <v>0.006794056173210716</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42094</v>
       </c>
       <c r="B5">
-        <v>0.04199352000000012</v>
-      </c>
-      <c r="C5">
         <v>0.02506534487898571</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42124</v>
       </c>
       <c r="B6">
-        <v>0.03547920000000016</v>
-      </c>
-      <c r="C6">
         <v>-0.006251785519741038</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42155</v>
       </c>
       <c r="B7">
-        <v>0.04696802</v>
-      </c>
-      <c r="C7">
         <v>0.01109517216763001</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42185</v>
       </c>
       <c r="B8">
-        <v>0.07575239999999983</v>
-      </c>
-      <c r="C8">
         <v>0.02749308426822794</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42216</v>
       </c>
       <c r="B9">
-        <v>0.09921219999999997</v>
-      </c>
-      <c r="C9">
         <v>0.02180780633164292</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42247</v>
       </c>
       <c r="B10">
-        <v>0.1116077199999999</v>
-      </c>
-      <c r="C10">
         <v>0.01127673073497526</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42277</v>
       </c>
       <c r="B11">
-        <v>0.1218146500000001</v>
-      </c>
-      <c r="C11">
         <v>0.009182133063991627</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42308</v>
       </c>
       <c r="B12">
-        <v>0.13456567</v>
-      </c>
-      <c r="C12">
         <v>0.01136642314307434</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42338</v>
       </c>
       <c r="B13">
-        <v>0.12670095</v>
-      </c>
-      <c r="C13">
         <v>-0.006931921358064641</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42369</v>
       </c>
       <c r="B14">
-        <v>0.1558652999999999</v>
-      </c>
-      <c r="C14">
         <v>0.02588473010517989</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42400</v>
       </c>
       <c r="B15">
-        <v>0.1531921699999998</v>
-      </c>
-      <c r="C15">
         <v>-0.002312665671337366</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42429</v>
       </c>
       <c r="B16">
-        <v>0.1627680499999999</v>
-      </c>
-      <c r="C16">
         <v>0.008303802478991873</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42460</v>
       </c>
       <c r="B17">
-        <v>0.1789012400000001</v>
-      </c>
-      <c r="C17">
         <v>0.0138748136397453</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42490</v>
       </c>
       <c r="B18">
-        <v>0.21326947</v>
-      </c>
-      <c r="C18">
         <v>0.0291527643146765</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42521</v>
       </c>
       <c r="B19">
-        <v>0.24208735</v>
-      </c>
-      <c r="C19">
         <v>0.02375225019055338</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42551</v>
       </c>
       <c r="B20">
-        <v>0.24383048</v>
-      </c>
-      <c r="C20">
         <v>0.001403387611990325</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42582</v>
       </c>
       <c r="B21">
-        <v>0.2363294199999999</v>
-      </c>
-      <c r="C21">
         <v>-0.006030612788971101</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42613</v>
       </c>
       <c r="B22">
-        <v>0.27682601</v>
-      </c>
-      <c r="C22">
         <v>0.03275550136144134</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42643</v>
       </c>
       <c r="B23">
-        <v>0.2954826499999998</v>
-      </c>
-      <c r="C23">
         <v>0.01461173241607128</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42674</v>
       </c>
       <c r="B24">
-        <v>0.3272776099999999</v>
-      </c>
-      <c r="C24">
         <v>0.02454294544199409</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42704</v>
       </c>
       <c r="B25">
-        <v>0.3382817199999999</v>
-      </c>
-      <c r="C25">
         <v>0.008290737308527252</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42735</v>
       </c>
       <c r="B26">
-        <v>0.3625422</v>
-      </c>
-      <c r="C26">
         <v>0.01812808143265987</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42766</v>
       </c>
       <c r="B27">
-        <v>0.3907531900000001</v>
-      </c>
-      <c r="C27">
         <v>0.02070467248647412</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42794</v>
       </c>
       <c r="B28">
-        <v>0.4012792300000001</v>
-      </c>
-      <c r="C28">
         <v>0.007568589506524948</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42825</v>
       </c>
       <c r="B29">
-        <v>0.4272020299999999</v>
-      </c>
-      <c r="C29">
         <v>0.01849938216810632</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42855</v>
       </c>
       <c r="B30">
-        <v>0.43444002</v>
-      </c>
-      <c r="C30">
         <v>0.005071454389677488</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42886</v>
       </c>
       <c r="B31">
-        <v>0.43875631</v>
-      </c>
-      <c r="C31">
         <v>0.00300904181410111</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42916</v>
       </c>
       <c r="B32">
-        <v>0.46385831</v>
-      </c>
-      <c r="C32">
         <v>0.01744701296913864</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42947</v>
       </c>
       <c r="B33">
-        <v>0.49366507</v>
-      </c>
-      <c r="C33">
         <v>0.02036177941292694</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42978</v>
       </c>
       <c r="B34">
-        <v>0.5211732200000001</v>
-      </c>
-      <c r="C34">
         <v>0.01841654501567747</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43008</v>
       </c>
       <c r="B35">
-        <v>0.53009281</v>
-      </c>
-      <c r="C35">
         <v>0.005863625445627907</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43039</v>
       </c>
       <c r="B36">
-        <v>0.5326277799999999</v>
-      </c>
-      <c r="C36">
         <v>0.001656742639029707</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43069</v>
       </c>
       <c r="B37">
-        <v>0.5235426300000001</v>
-      </c>
-      <c r="C37">
         <v>-0.005927825476319981</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43100</v>
       </c>
       <c r="B38">
-        <v>0.5464846399999999</v>
-      </c>
-      <c r="C38">
         <v>0.01505833151514757</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43131</v>
       </c>
       <c r="B39">
-        <v>0.56626194</v>
-      </c>
-      <c r="C39">
         <v>0.01278855249412647</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43159</v>
       </c>
       <c r="B40">
-        <v>0.5768701599999999</v>
-      </c>
-      <c r="C40">
         <v>0.006772953954304661</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43190</v>
       </c>
       <c r="B41">
-        <v>0.5903891200000002</v>
-      </c>
-      <c r="C41">
         <v>0.008573286718800199</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43220</v>
       </c>
       <c r="B42">
-        <v>0.6023939200000001</v>
-      </c>
-      <c r="C42">
         <v>0.007548341376983236</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43251</v>
       </c>
       <c r="B43">
-        <v>0.5649579600000001</v>
-      </c>
-      <c r="C43">
         <v>-0.02336251999757966</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43281</v>
       </c>
       <c r="B44">
-        <v>0.55820479</v>
-      </c>
-      <c r="C44">
         <v>-0.004315240519304431</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43312</v>
       </c>
       <c r="B45">
-        <v>0.5776487299999999</v>
-      </c>
-      <c r="C45">
         <v>0.01247842396890597</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43343</v>
       </c>
       <c r="B46">
-        <v>0.5697462500000001</v>
-      </c>
-      <c r="C46">
         <v>-0.005009023776794574</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43373</v>
       </c>
       <c r="B47">
-        <v>0.5845530299999999</v>
-      </c>
-      <c r="C47">
         <v>0.009432594599286137</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43404</v>
       </c>
       <c r="B48">
-        <v>0.61937267</v>
-      </c>
-      <c r="C48">
         <v>0.0219744239168822</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43434</v>
       </c>
       <c r="B49">
-        <v>0.62591376</v>
-      </c>
-      <c r="C49">
         <v>0.004039274048017738</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43465</v>
       </c>
       <c r="B50">
-        <v>0.6753194899999999</v>
-      </c>
-      <c r="C50">
         <v>0.03038643943821473</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43496</v>
       </c>
       <c r="B51">
-        <v>0.6656376700000002</v>
-      </c>
-      <c r="C51">
         <v>-0.005779088739664706</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43524</v>
       </c>
       <c r="B52">
-        <v>0.68308346</v>
-      </c>
-      <c r="C52">
         <v>0.01047394058997231</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43555</v>
       </c>
       <c r="B53">
-        <v>0.6858750800000002</v>
-      </c>
-      <c r="C53">
         <v>0.001658634325834463</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43585</v>
       </c>
       <c r="B54">
-        <v>0.68232629</v>
-      </c>
-      <c r="C54">
         <v>-0.00210501361702331</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43616</v>
       </c>
       <c r="B55">
-        <v>0.68006312</v>
-      </c>
-      <c r="C55">
         <v>-0.001345262220208143</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43646</v>
       </c>
       <c r="B56">
-        <v>0.6927072699999999</v>
-      </c>
-      <c r="C56">
         <v>0.007525996999445894</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43677</v>
       </c>
       <c r="B57">
-        <v>0.71370377</v>
-      </c>
-      <c r="C57">
         <v>0.01240409394590714</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43708</v>
       </c>
       <c r="B58">
-        <v>0.7336709099999998</v>
-      </c>
-      <c r="C58">
         <v>0.011651453623166</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43738</v>
       </c>
       <c r="B59">
-        <v>0.7492453499999998</v>
-      </c>
-      <c r="C59">
         <v>0.008983504256871999</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43769</v>
       </c>
       <c r="B60">
-        <v>0.77899992</v>
-      </c>
-      <c r="C60">
         <v>0.01700994660354538</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43799</v>
       </c>
       <c r="B61">
-        <v>0.7743584000000001</v>
-      </c>
-      <c r="C61">
         <v>-0.002609061387703671</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43830</v>
       </c>
       <c r="B62">
-        <v>0.80175237</v>
-      </c>
-      <c r="C62">
         <v>0.01543880311891876</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43861</v>
       </c>
       <c r="B63">
-        <v>0.82292125</v>
-      </c>
-      <c r="C63">
         <v>0.01174905073109467</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43890</v>
       </c>
       <c r="B64">
-        <v>0.80425192</v>
-      </c>
-      <c r="C64">
         <v>-0.01024143527867705</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43921</v>
       </c>
       <c r="B65">
-        <v>0.7844859900000001</v>
-      </c>
-      <c r="C65">
         <v>-0.01095519410615342</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43951</v>
       </c>
       <c r="B66">
-        <v>0.7861495199999999</v>
-      </c>
-      <c r="C66">
         <v>0.0009322180220645571</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43982</v>
       </c>
       <c r="B67">
-        <v>0.81376264</v>
-      </c>
-      <c r="C67">
         <v>0.01545957921820573</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>44012</v>
       </c>
       <c r="B68">
-        <v>0.8230129900000001</v>
-      </c>
-      <c r="C68">
         <v>0.005100088509927714</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>44043</v>
       </c>
       <c r="B69">
-        <v>0.8498205599999999</v>
-      </c>
-      <c r="C69">
         <v>0.0147050899511143</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>44074</v>
       </c>
       <c r="B70">
-        <v>0.86242522</v>
-      </c>
-      <c r="C70">
         <v>0.006813990649990442</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>44104</v>
       </c>
       <c r="B71">
-        <v>0.8694517500000001</v>
-      </c>
-      <c r="C71">
         <v>0.003772785035632165</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>44135</v>
       </c>
       <c r="B72">
-        <v>0.87465423</v>
-      </c>
-      <c r="C72">
         <v>0.002782890759282619</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>44165</v>
       </c>
       <c r="B73">
-        <v>0.8772712999999999</v>
-      </c>
-      <c r="C73">
-        <v>0.001396028109140968</v>
+        <v>-0.003252226411907477</v>
       </c>
     </row>
   </sheetData>
